--- a/docs/CareConnect-DocumentReference-1.xlsx
+++ b/docs/CareConnect-DocumentReference-1.xlsx
@@ -671,7 +671,7 @@
     <t>DocumentReference.type</t>
   </si>
   <si>
-    <t xml:space="preserve">Type of document </t>
+    <t>Type of document</t>
   </si>
   <si>
     <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>

--- a/docs/CareConnect-DocumentReference-1.xlsx
+++ b/docs/CareConnect-DocumentReference-1.xlsx
@@ -488,7 +488,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
